--- a/DATA_goal/Junction_Flooding_478.xlsx
+++ b/DATA_goal/Junction_Flooding_478.xlsx
@@ -655,103 +655,103 @@
         <v>44809.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44809.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.61</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.51</v>
+        <v>55.07</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44809.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R4" s="4" t="n">
+      <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>6.68</v>
+        <v>66.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44809.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.54</v>
+        <v>55.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_478.xlsx
+++ b/DATA_goal/Junction_Flooding_478.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44809.54861111111</v>
+        <v>45159.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44809.55555555555</v>
+        <v>45159.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.18</v>
+        <v>24.448</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.58</v>
+        <v>17.766</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>2.046</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.73</v>
+        <v>53.468</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.66</v>
+        <v>42.836</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.47</v>
+        <v>19.122</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.32</v>
+        <v>71.922</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.89</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.68</v>
+        <v>12.979</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.8</v>
+        <v>19.105</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.51</v>
+        <v>21.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.21</v>
+        <v>22.55</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.59</v>
+        <v>6.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.86</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.07</v>
+        <v>27.132</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.37</v>
+        <v>16.371</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.532</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.262</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.07</v>
+        <v>284.539</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.44</v>
+        <v>53.597</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.97</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.28</v>
+        <v>35.728</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.73</v>
+        <v>18.695</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.52</v>
+        <v>3.139</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.16</v>
+        <v>35.631</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.34</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.74</v>
+        <v>13.955</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.49</v>
+        <v>16.449</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.71</v>
+        <v>22.082</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.59</v>
+        <v>65.72799999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.27</v>
+        <v>9.824</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.44</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44809.5625</v>
+        <v>45159.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.23</v>
+        <v>1.392</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.06</v>
+        <v>0.676</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.806</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.1</v>
+        <v>3.287</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.33</v>
+        <v>1.764</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.46</v>
+        <v>1.012</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.32</v>
+        <v>13.319</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.23</v>
+        <v>1.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.28</v>
+        <v>0.744</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.72</v>
+        <v>0.601</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.99</v>
+        <v>1.215</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.99</v>
+        <v>1.336</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.71</v>
+        <v>0.402</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.69</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.18</v>
+        <v>1.664</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.02</v>
+        <v>1.299</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.878</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.369</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.77</v>
+        <v>10.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.69</v>
+        <v>3.807</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.65</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9</v>
+        <v>2.412</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.62</v>
+        <v>1.065</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>5.777</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.97</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.33</v>
+        <v>1.003</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.15</v>
+        <v>1.162</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.65</v>
+        <v>1.069</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.24</v>
+        <v>13.035</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.28</v>
+        <v>0.402</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.42</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44809.56944444445</v>
+        <v>45159.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.3</v>
+        <v>18.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.23</v>
+        <v>13.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.14</v>
+        <v>39.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.58</v>
+        <v>32.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.82</v>
+        <v>14.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.42</v>
+        <v>51.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.15</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.78</v>
+        <v>9.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.01</v>
+        <v>14.39</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.99</v>
+        <v>15.91</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.05</v>
+        <v>16.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.42</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.98</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.09</v>
+        <v>20.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.41</v>
+        <v>12.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.42</v>
+        <v>210.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.64</v>
+        <v>39.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.93</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.69</v>
+        <v>26.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.95</v>
+        <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>2.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>25.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.83</v>
+        <v>10.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.52</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.79</v>
+        <v>16.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.37</v>
+        <v>46.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.7</v>
+        <v>7.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44809.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>106.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_478.xlsx
+++ b/DATA_goal/Junction_Flooding_478.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45159.50694444445</v>
+        <v>44809.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45159.51388888889</v>
+        <v>44809.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.448</v>
+        <v>5.182</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.766</v>
+        <v>4.575</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.046</v>
+        <v>0.136</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>53.468</v>
+        <v>10.727</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.836</v>
+        <v>9.663</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>19.122</v>
+        <v>3.467</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>71.922</v>
+        <v>11.318</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.668</v>
+        <v>5.893</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.979</v>
+        <v>2.683</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.105</v>
+        <v>3.804</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.28</v>
+        <v>5.507</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.55</v>
+        <v>5.212</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.159</v>
+        <v>1.592</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.174</v>
+        <v>3.864</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>27.132</v>
+        <v>6.067</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.371</v>
+        <v>3.366</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.532</v>
+        <v>0.612</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.262</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.539</v>
+        <v>55.073</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>53.597</v>
+        <v>11.445</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.698</v>
+        <v>3.973</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.728</v>
+        <v>7.278</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.695</v>
+        <v>3.726</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.139</v>
+        <v>0.522</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.631</v>
+        <v>6.164</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.633</v>
+        <v>3.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.955</v>
+        <v>2.74</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.449</v>
+        <v>3.494</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.082</v>
+        <v>4.708</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.72799999999999</v>
+        <v>10.594</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.824</v>
+        <v>3.269</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>22.127</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45159.52083333334</v>
+        <v>44809.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.392</v>
+        <v>6.234</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.676</v>
+        <v>5.063</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.806</v>
+        <v>0.162</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.287</v>
+        <v>13.1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.764</v>
+        <v>11.332</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.012</v>
+        <v>4.456</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.319</v>
+        <v>17.324</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.745</v>
+        <v>7.227</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.744</v>
+        <v>3.277</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.601</v>
+        <v>4.719</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.215</v>
+        <v>5.986</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.336</v>
+        <v>5.991</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.402</v>
+        <v>1.713</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.128</v>
+        <v>4.693</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.664</v>
+        <v>7.176</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.299</v>
+        <v>4.022</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.878</v>
+        <v>0.448</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.369</v>
+        <v>0.044</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.02</v>
+        <v>66.768</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.807</v>
+        <v>13.694</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.041</v>
+        <v>4.649</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.412</v>
+        <v>9.003</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.065</v>
+        <v>4.624</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.777</v>
+        <v>8.973000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>3.973</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.003</v>
+        <v>3.331</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.162</v>
+        <v>4.149</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.069</v>
+        <v>5.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.035</v>
+        <v>16.238</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.402</v>
+        <v>3.276</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.316</v>
+        <v>5.417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45159.52777777778</v>
+        <v>44809.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.21</v>
+        <v>5.303</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.42</v>
+        <v>4.233</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.84</v>
+        <v>11.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.21</v>
+        <v>9.577</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.26</v>
+        <v>3.817</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.32</v>
+        <v>16.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.11</v>
+        <v>6.149</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.75</v>
+        <v>2.782</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.39</v>
+        <v>4.014</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.91</v>
+        <v>4.994</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.89</v>
+        <v>5.048</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>1.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.29</v>
+        <v>3.984</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.25</v>
+        <v>6.093</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.12</v>
+        <v>3.411</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.348</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.037</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.11</v>
+        <v>55.418</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.79</v>
+        <v>11.636</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.19</v>
+        <v>3.934</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.65</v>
+        <v>7.693</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.02</v>
+        <v>3.945</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.535</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.38</v>
+        <v>8.208</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.65</v>
+        <v>3.366</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.36</v>
+        <v>2.826</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.19</v>
+        <v>3.521</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.57</v>
+        <v>4.795</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.33</v>
+        <v>15.372</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.37</v>
+        <v>2.696</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.49</v>
+        <v>4.606</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44809.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>106.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_478.xlsx
+++ b/DATA_goal/Junction_Flooding_478.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44809.54861111111</v>
+        <v>45159.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44809.55555555555</v>
+        <v>45159.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.182</v>
+        <v>24.448</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.575</v>
+        <v>17.766</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.136</v>
+        <v>2.046</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.727</v>
+        <v>53.468</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.663</v>
+        <v>42.836</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.467</v>
+        <v>19.122</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.318</v>
+        <v>71.922</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.893</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.683</v>
+        <v>12.979</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.804</v>
+        <v>19.105</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.507</v>
+        <v>21.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.212</v>
+        <v>22.55</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.592</v>
+        <v>6.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.864</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.067</v>
+        <v>27.132</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.366</v>
+        <v>16.371</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.612</v>
+        <v>1.532</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.262</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.073</v>
+        <v>284.539</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.445</v>
+        <v>53.597</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.973</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.278</v>
+        <v>35.728</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.726</v>
+        <v>18.695</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.522</v>
+        <v>3.139</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.164</v>
+        <v>35.631</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.342</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.74</v>
+        <v>13.955</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.494</v>
+        <v>16.449</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.708</v>
+        <v>22.082</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.594</v>
+        <v>65.72799999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.269</v>
+        <v>9.824</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.436</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44809.5625</v>
+        <v>45159.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.234</v>
+        <v>1.392</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.063</v>
+        <v>0.676</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.162</v>
+        <v>0.806</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.1</v>
+        <v>3.287</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.332</v>
+        <v>1.764</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.456</v>
+        <v>1.012</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.324</v>
+        <v>13.319</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.227</v>
+        <v>1.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.277</v>
+        <v>0.744</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.719</v>
+        <v>0.601</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.986</v>
+        <v>1.215</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.991</v>
+        <v>1.336</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.713</v>
+        <v>0.402</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.693</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.176</v>
+        <v>1.664</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.022</v>
+        <v>1.299</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.448</v>
+        <v>0.878</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.044</v>
+        <v>0.369</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.768</v>
+        <v>10.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.694</v>
+        <v>3.807</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.649</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.003</v>
+        <v>2.412</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.624</v>
+        <v>1.065</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.973000000000001</v>
+        <v>5.777</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.973</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.331</v>
+        <v>1.003</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.149</v>
+        <v>1.162</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.65</v>
+        <v>1.069</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.238</v>
+        <v>13.035</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.276</v>
+        <v>0.402</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.417</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44809.56944444445</v>
+        <v>45159.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.303</v>
+        <v>18.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.233</v>
+        <v>13.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.16</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.14</v>
+        <v>39.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.577</v>
+        <v>32.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.817</v>
+        <v>14.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.42</v>
+        <v>51.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.149</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.782</v>
+        <v>9.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.014</v>
+        <v>14.39</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.994</v>
+        <v>15.91</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.048</v>
+        <v>16.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.42</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.984</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.093</v>
+        <v>20.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.411</v>
+        <v>12.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.348</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.037</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.418</v>
+        <v>210.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.636</v>
+        <v>39.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.934</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.693</v>
+        <v>26.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.945</v>
+        <v>14.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.535</v>
+        <v>2.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.208</v>
+        <v>25.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.366</v>
+        <v>11.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.826</v>
+        <v>10.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.521</v>
+        <v>12.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.795</v>
+        <v>16.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.372</v>
+        <v>46.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.696</v>
+        <v>7.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.606</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44809.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>106.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
